--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763ABDFC-C3F1-4E1E-A18D-467CD416932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB657C-9F8E-464E-90CD-B8518CFB156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>verify:</t>
   </si>
   <si>
-    <t>стр. X, 15, 93</t>
-  </si>
-  <si>
     <t>чс-м</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Херсонская</t>
+  </si>
+  <si>
+    <t>Статистический ежегодник России 1913 стр. II/2-3</t>
   </si>
 </sst>
 </file>
@@ -636,13 +636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF10A1-F9D4-4DE9-9452-15A436BD200D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92751CB6-2080-4F2A-93AB-D7595671A56D}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
@@ -698,10 +700,10 @@
         <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>59</v>
@@ -2789,7 +2791,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="10">
